--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>536829.883868121</v>
+        <v>580048.6968314094</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445480.89855084</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6759716.467212725</v>
+        <v>7622616.185043047</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9417207.701425299</v>
+        <v>8989940.358341986</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>165.4291737832667</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>29.00708539155843</v>
       </c>
       <c r="Y4" t="n">
-        <v>186.8843453668069</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>153.8072380324131</v>
       </c>
     </row>
     <row r="6">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="U6" t="n">
-        <v>29.91658192442678</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>226.6607070537004</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>104.6528317025653</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>97.12632741948717</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1335,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>118.1692128216234</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>161.8294550022487</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>173.6852749624519</v>
       </c>
       <c r="Y11" t="n">
-        <v>190.1921129400379</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>61.42351322780056</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>138.6444210303394</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>199.59611097743</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>27.92412066199451</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>53.82704427691594</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>136.706872384579</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>347.2753970842789</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.67167509297</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>18.26879610204049</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>164.1485160799598</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>194.2377928517791</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>162.6159201417021</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>10.20389322926702</v>
+        <v>44.45370149915957</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,13 +2298,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>381.1073420946469</v>
       </c>
       <c r="G23" t="n">
-        <v>381.4982846901453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>101.1037207411568</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>171.4083237228196</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>16.70871526401037</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>289.3265275022427</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.26879610204007</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>171.2664647265719</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2851,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>93.91244618182625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>154.0058679980805</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>230.8408473163242</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>292.8625891443016</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>25.01141625626335</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>78.53075888137346</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>93.45832099395089</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>271.3738788970234</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.7228370923124</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>163.9429131475848</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3508,10 +3508,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>12.87606160420883</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,16 +3556,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>58.92805047992073</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>131.6653792309039</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>174.9123239800296</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>345.0555932653311</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>97.28002421814141</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.41247594072398</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3985,10 +3985,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.34825474388594</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>174.786919018088</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>144.2875934942265</v>
       </c>
       <c r="X46" t="n">
-        <v>155.6249412521983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.855520006025</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>820.2300801016544</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344764</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>371.2627786323101</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.1972859387737</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>533.499507267843</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374622</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="V3" t="n">
-        <v>858.0464416374622</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W3" t="n">
-        <v>603.8090849092605</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X3" t="n">
-        <v>395.9575847037277</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.1972859387737</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.328140844591</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>333.328140844591</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>183.2115014322552</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>465.2530182692152</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>650.903349563872</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>612.5614882768594</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="V4" t="n">
-        <v>788.4778634388466</v>
+        <v>423.1417032603746</v>
       </c>
       <c r="W4" t="n">
-        <v>522.1002068716687</v>
+        <v>233.7219182438898</v>
       </c>
       <c r="X4" t="n">
-        <v>522.1002068716687</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y4" t="n">
-        <v>333.328140844591</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="E5" t="n">
-        <v>287.4747669672984</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="F5" t="n">
-        <v>21.09711040012049</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>21.03371160678492</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058942</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062751</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.787594686703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>180.334565405576</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733055</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>67.13418877024205</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U6" t="n">
-        <v>1024.636750385391</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V6" t="n">
-        <v>1024.636750385391</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="W6" t="n">
-        <v>770.3993936571898</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X6" t="n">
-        <v>562.5478934516569</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y6" t="n">
-        <v>354.787594686703</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012039</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012039</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>471.6341805242516</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U7" t="n">
-        <v>659.6853352735295</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V7" t="n">
-        <v>659.6853352735295</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="W7" t="n">
-        <v>430.7351261283775</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="X7" t="n">
-        <v>202.7455752303602</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.7455752303602</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>884.1849331278574</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C8" t="n">
-        <v>515.2224161874458</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D8" t="n">
-        <v>156.9567175806953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>156.9567175806953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>156.9567175806953</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.784773191979</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1270.784773191979</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>473.5288154050985</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908465</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>722.9192922843276</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>571.6362168389239</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>473.5288154050985</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S10" t="n">
-        <v>1517.083278840534</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T10" t="n">
-        <v>1294.10479803527</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U10" t="n">
-        <v>1004.986460539108</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="V10" t="n">
-        <v>750.3019723332208</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W10" t="n">
-        <v>460.8848022962601</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>232.8952513982428</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1896.535714501394</v>
       </c>
       <c r="Y11" t="n">
         <v>1506.396382525582</v>
@@ -5111,37 +5111,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.3679798527295</v>
+        <v>906.2153166031711</v>
       </c>
       <c r="C13" t="n">
-        <v>511.4317969248226</v>
+        <v>737.2791336752642</v>
       </c>
       <c r="D13" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1787.249678360878</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1565.483062930404</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1565.483062930404</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1310.798574724517</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W13" t="n">
-        <v>1310.798574724517</v>
+        <v>1127.007895746701</v>
       </c>
       <c r="X13" t="n">
-        <v>1082.809023826499</v>
+        <v>1127.007895746701</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.0164446829692</v>
+        <v>906.2153166031711</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1792.126722677733</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C14" t="n">
-        <v>1423.164205737321</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D14" t="n">
-        <v>1064.898507130571</v>
+        <v>920.7766538636577</v>
       </c>
       <c r="E14" t="n">
-        <v>679.1102545323263</v>
+        <v>920.7766538636577</v>
       </c>
       <c r="F14" t="n">
-        <v>268.1243497427187</v>
+        <v>509.7907490740501</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>94.71829891904656</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>94.71829891904656</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912081</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X14" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y14" t="n">
-        <v>1792.126722677733</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>701.1808689801002</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C16" t="n">
-        <v>532.2446860521933</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D16" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218342</v>
@@ -5436,19 +5436,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1507.690456789434</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1218.587589915078</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V16" t="n">
-        <v>1218.587589915078</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W16" t="n">
-        <v>929.1704198781175</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X16" t="n">
-        <v>701.1808689801002</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y16" t="n">
-        <v>701.1808689801002</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647.321240915451</v>
+        <v>1998.10447029351</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>1629.141953353098</v>
       </c>
       <c r="D17" t="n">
         <v>1278.358723975039</v>
@@ -5515,10 +5515,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176917</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W17" t="n">
-        <v>2325.505862906803</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>1952.040104645723</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y17" t="n">
-        <v>1647.321240915451</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="18">
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031481</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.8553933260943</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C19" t="n">
-        <v>231.8553933260943</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D19" t="n">
-        <v>231.8553933260943</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E19" t="n">
         <v>213.4020639300938</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046023</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676417</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696244</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260943</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>560.295507582789</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410102</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.060412955384</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>690.674942710575</v>
+        <v>725.2707086397594</v>
       </c>
       <c r="C22" t="n">
-        <v>521.7387597826681</v>
+        <v>556.3345257118525</v>
       </c>
       <c r="D22" t="n">
-        <v>371.6221203703324</v>
+        <v>406.2178862995167</v>
       </c>
       <c r="E22" t="n">
-        <v>223.7090267879393</v>
+        <v>258.3047927171236</v>
       </c>
       <c r="F22" t="n">
-        <v>76.8190792900289</v>
+        <v>111.4148452192133</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3234075408147</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y22" t="n">
-        <v>872.3234075408147</v>
+        <v>906.9191734699991</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1904.487375535337</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="C23" t="n">
-        <v>1904.487375535337</v>
+        <v>1522.390776791884</v>
       </c>
       <c r="D23" t="n">
-        <v>1546.221676928586</v>
+        <v>1164.125078185134</v>
       </c>
       <c r="E23" t="n">
-        <v>1160.433424330342</v>
+        <v>1164.125078185134</v>
       </c>
       <c r="F23" t="n">
-        <v>749.4475195407347</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6022,19 +6022,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y23" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>700.1577228956174</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="C25" t="n">
-        <v>531.2215399677106</v>
+        <v>613.5567673704356</v>
       </c>
       <c r="D25" t="n">
-        <v>381.1049005553748</v>
+        <v>463.4401279580999</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>315.5270343757068</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>168.6370868777964</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U25" t="n">
-        <v>1638.191681214136</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V25" t="n">
-        <v>1383.507193008249</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W25" t="n">
-        <v>1094.090022971289</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X25" t="n">
-        <v>920.9503020391476</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y25" t="n">
-        <v>700.1577228956174</v>
+        <v>782.4929502983425</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1517.887535471215</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C26" t="n">
-        <v>1517.887535471215</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="D26" t="n">
-        <v>1159.621836864464</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>773.83358426622</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
@@ -6235,7 +6235,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535336</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.487375535336</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8553933260938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>84.96544582818348</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>994.1614947556902</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>994.1614947556902</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>994.1614947556902</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
@@ -6472,7 +6472,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180638</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X29" t="n">
-        <v>1977.114329431319</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.114329431319</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1241.044369546818</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V31" t="n">
-        <v>986.3598813409312</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W31" t="n">
-        <v>696.9427113039706</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X31" t="n">
-        <v>468.9531604059532</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y31" t="n">
-        <v>248.1605812624231</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1458.811090838974</v>
+        <v>1528.069587875903</v>
       </c>
       <c r="C32" t="n">
-        <v>1458.811090838974</v>
+        <v>1159.107070935491</v>
       </c>
       <c r="D32" t="n">
-        <v>1100.545392232223</v>
+        <v>1159.107070935491</v>
       </c>
       <c r="E32" t="n">
-        <v>714.757139633979</v>
+        <v>773.3188183372472</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>362.3329135476396</v>
       </c>
       <c r="G32" t="n">
         <v>66.5121164321834</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2961.784676410101</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2609.016021139987</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X32" t="n">
-        <v>2235.550262878907</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.410930903096</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="33">
@@ -6782,7 +6782,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
         <v>765.1517452158131</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.8928126690276</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C34" t="n">
-        <v>241.8928126690276</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D34" t="n">
-        <v>91.77617325669183</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E34" t="n">
-        <v>91.77617325669183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>91.77617325669183</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6903,7 +6903,7 @@
         <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.5412774992673</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1232.248790760447</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C35" t="n">
-        <v>863.2862738200351</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="D35" t="n">
-        <v>863.2862738200351</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,16 +6949,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2735.222376331575</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>2382.45372106146</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X35" t="n">
-        <v>2008.98796280038</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y35" t="n">
-        <v>1618.848630824569</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,34 +7034,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7086,25 +7086,25 @@
         <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,25 +7116,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1539.929030488741</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U37" t="n">
-        <v>1539.929030488741</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V37" t="n">
-        <v>1539.929030488741</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W37" t="n">
-        <v>1250.51186045178</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X37" t="n">
         <v>1250.51186045178</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1274.53911114974</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C38" t="n">
-        <v>905.5765942093287</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D38" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
         <v>892.5704713767946</v>
@@ -7174,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7192,7 +7192,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450754</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X38" t="n">
-        <v>2051.278283189674</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y38" t="n">
-        <v>1661.138951213862</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7332,16 +7332,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676413</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X40" t="n">
-        <v>452.6479724696239</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1528.069587875904</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1159.107070935492</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>800.841372328742</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>415.0531197304977</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218342</v>
@@ -7411,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W41" t="n">
-        <v>2678.274518176917</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X41" t="n">
-        <v>2304.808759915838</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y41" t="n">
-        <v>1914.669427940026</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.1808689801002</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>532.2446860521933</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
         <v>234.2149530574645</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1829.031897363097</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W43" t="n">
-        <v>1161.740577577775</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X43" t="n">
-        <v>933.7510266797581</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y43" t="n">
-        <v>882.8293338103399</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.525483338121</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C44" t="n">
-        <v>852.5629663977095</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D44" t="n">
-        <v>494.2972677909589</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E44" t="n">
-        <v>108.5090151927147</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3309.092432978983</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3309.092432978983</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="U44" t="n">
-        <v>3055.56195625282</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V44" t="n">
-        <v>2724.499068909249</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W44" t="n">
-        <v>2371.730413639134</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X44" t="n">
-        <v>1998.264655378055</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y44" t="n">
-        <v>1608.125323402243</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="45">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.4780323548191</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C46" t="n">
-        <v>364.5418494269122</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
         <v>66.51211643218342</v>
@@ -7845,13 +7845,13 @@
         <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>872.3234075408147</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X46" t="n">
-        <v>715.1264971850588</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.1264971850588</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>98.86065188594071</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>75.41988959484661</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589403</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777609</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>200.100354594913</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.6511845669353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>7.279325205049048</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>87.60245705113883</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22710,25 +22710,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>19.25466862917628</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>98.99741117027105</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>196.7025699974787</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.70030798528788</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -22789,22 +22789,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>149.6511845669353</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>232.4307006236405</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>57.14828643304915</v>
       </c>
       <c r="U6" t="n">
-        <v>195.9379055791279</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>18.15710861098447</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>44.95080079324748</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>59.86229128289057</v>
+        <v>98.99741117027111</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>38.18406822271726</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>31.0590661857749</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>306.8948710703887</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>204.5585635023745</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23117,10 +23117,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>108.5563683578172</v>
       </c>
     </row>
     <row r="10">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23193,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>76.49324754011401</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>61.89021848785134</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>98.73949432713039</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>64.61205615750811</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>98.99741117027111</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>196.0458257160171</v>
       </c>
       <c r="Y11" t="n">
-        <v>196.0458257160157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>87.1919597904118</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>51.12460430110247</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>211.3256146760235</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>13.65280911093147</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>113.4197768217119</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.84207689159018</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>7.407644536404007</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.56626356308362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.1651665445287</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>61.56113930907739</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>216.6839328016744</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>186.6250485757109</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>155.8219150297612</v>
+        <v>121.5721067598687</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>25.76870364706457</v>
       </c>
       <c r="G23" t="n">
-        <v>29.42344096330817</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>64.92208751787139</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>54.30133166621755</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,13 +24448,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.9743263566726</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>117.5495182394687</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>147.7570121569881</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24685,22 +24685,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>235.6095810151396</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>275.8186544966428</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,22 +24888,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>71.70378739095662</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>176.0351984253873</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>118.0591365091518</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.0143920027649</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>140.0538944707213</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>261.2247206267321</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>56.37837957311149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>25.82611218385676</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>61.76674224145233</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>341.8069800164741</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696602</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>154.8576191056871</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>207.821517683451</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>61.8204524763803</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>122.2689250580278</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.1721774113708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>92.83950704428989</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>29.13105112153212</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="X46" t="n">
-        <v>70.08471413683881</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>534429.9763591598</v>
+        <v>471299.3736439903</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>534429.9763591598</v>
+        <v>471299.3736439903</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>799493.8452023976</v>
+        <v>471299.3736439904</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160454</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160453</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160449</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160453</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>290673.0489695932</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="F2" t="n">
         <v>323947.2440223745</v>
-      </c>
-      <c r="F2" t="n">
-        <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="H2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="I2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="J2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323947.2440223743</v>
-      </c>
       <c r="L2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="M2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>160456.4418678771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14543.87419713278</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="C4" t="n">
-        <v>14543.87419713278</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="D4" t="n">
-        <v>19788.00270570973</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710377</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.34706710377</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="G4" t="n">
-        <v>10380.34706710377</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="H4" t="n">
         <v>10380.34706710378</v>
@@ -26450,7 +26450,7 @@
         <v>10380.34706710378</v>
       </c>
       <c r="M4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="N4" t="n">
         <v>10380.34706710378</v>
@@ -26469,40 +26469,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-574239.1210420867</v>
+        <v>-489409.4284730675</v>
       </c>
       <c r="C6" t="n">
-        <v>105848.8595491064</v>
+        <v>101947.474047778</v>
       </c>
       <c r="D6" t="n">
-        <v>-218408.5527037964</v>
+        <v>101947.474047778</v>
       </c>
       <c r="E6" t="n">
-        <v>53711.3872786256</v>
+        <v>-388221.7061695961</v>
       </c>
       <c r="F6" t="n">
-        <v>235784.3670958163</v>
+        <v>238912.9374640713</v>
       </c>
       <c r="G6" t="n">
-        <v>235784.3670958164</v>
+        <v>238912.9374640711</v>
       </c>
       <c r="H6" t="n">
-        <v>235784.3670958165</v>
+        <v>238912.9374640713</v>
       </c>
       <c r="I6" t="n">
-        <v>235784.3670958164</v>
+        <v>238912.9374640714</v>
       </c>
       <c r="J6" t="n">
-        <v>166785.2126767023</v>
+        <v>189847.9927355267</v>
       </c>
       <c r="K6" t="n">
-        <v>235784.3670958162</v>
+        <v>238912.9374640713</v>
       </c>
       <c r="L6" t="n">
-        <v>140401.7209582468</v>
+        <v>238912.9374640712</v>
       </c>
       <c r="M6" t="n">
-        <v>188232.1013024014</v>
+        <v>78456.49559619412</v>
       </c>
       <c r="N6" t="n">
-        <v>235784.3670958163</v>
+        <v>238912.9374640714</v>
       </c>
       <c r="O6" t="n">
-        <v>235784.3670958162</v>
+        <v>238912.9374640711</v>
       </c>
       <c r="P6" t="n">
-        <v>235784.3670958163</v>
+        <v>238912.9374640713</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,10 +33502,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>100.2010091933412</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>99.08507489005487</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681148</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>10.60944440764983</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
